--- a/bioSample/bioSample_H.BROWN_09.24.20.xlsx
+++ b/bioSample/bioSample_H.BROWN_09.24.20.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB036E6E-E484-7444-B628-1032FF4F6949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A13707-7190-7C48-B5EF-24A8553C9730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="1520" windowWidth="23060" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10540" yWindow="1520" windowWidth="23060" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -183,9 +183,6 @@
     <t>TDY2261</t>
   </si>
   <si>
-    <t>TDY22744</t>
-  </si>
-  <si>
     <t>CNAG_02700</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>CNAG_00883</t>
+  </si>
+  <si>
+    <t>TDY2274</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,7 +673,7 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -702,7 +702,7 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -934,7 +934,7 @@
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1166,7 +1166,7 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -1195,7 +1195,7 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -1224,7 +1224,7 @@
         <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -1279,10 +1279,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
         <v>52</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>

--- a/bioSample/bioSample_H.BROWN_09.24.20.xlsx
+++ b/bioSample/bioSample_H.BROWN_09.24.20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A13707-7190-7C48-B5EF-24A8553C9730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AF336B-B7BC-4F46-A5AC-BD5BA937A72F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="1520" windowWidth="23060" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="4600" windowWidth="14220" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
   <si>
     <t>harvestDate</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>TDY2274</t>
+  </si>
+  <si>
+    <t>marker_1</t>
+  </si>
+  <si>
+    <t>NAT</t>
+  </si>
+  <si>
+    <t>G418</t>
   </si>
 </sst>
 </file>
@@ -556,20 +565,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,8 +608,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -627,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -656,7 +670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -684,8 +698,11 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -713,8 +730,11 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -742,8 +762,11 @@
       <c r="I6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -771,8 +794,11 @@
       <c r="I7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -800,8 +826,11 @@
       <c r="I8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -829,8 +858,11 @@
       <c r="I9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -858,8 +890,11 @@
       <c r="I10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -887,8 +922,11 @@
       <c r="I11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -916,8 +954,11 @@
       <c r="I12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -945,8 +986,11 @@
       <c r="I13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -974,8 +1018,11 @@
       <c r="I14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1003,8 +1050,11 @@
       <c r="I15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1032,8 +1082,11 @@
       <c r="I16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1061,8 +1114,11 @@
       <c r="I17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1090,8 +1146,11 @@
       <c r="I18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1119,8 +1178,11 @@
       <c r="I19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1148,8 +1210,11 @@
       <c r="I20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1177,8 +1242,11 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1206,8 +1274,11 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1235,8 +1306,11 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1264,8 +1338,11 @@
       <c r="I24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1292,6 +1369,9 @@
       </c>
       <c r="I25">
         <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
